--- a/documentation/biomedical_llm_state_of_art.xlsx
+++ b/documentation/biomedical_llm_state_of_art.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RESEARCH\Hackaton_NLP_2024\SOURCE\SpanishMedicaLLM\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D62776-3D3A-469E-913A-6F3EA088ECF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D936E4A-BCE1-4F4A-93D3-8FBAF8A451D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1236" yWindow="948" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Biomedical_llm_state_of_art" sheetId="2" r:id="rId1"/>
+    <sheet name="BioMistral_vs_StateOfArt" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
   <si>
     <t>Name</t>
   </si>
@@ -172,13 +173,121 @@
   </si>
   <si>
     <t>Apache 2.0</t>
+  </si>
+  <si>
+    <t>Resources and Information:</t>
+  </si>
+  <si>
+    <t>https://github.com/yuzhimanhua/Awesome-Scientific-Language-Models?tab=readme-ov-file#biology-and-medicine</t>
+  </si>
+  <si>
+    <t>Awesome Scientific Language Models</t>
+  </si>
+  <si>
+    <t>Clinical KG</t>
+  </si>
+  <si>
+    <t>Medical Genetics</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>Pro Medicine</t>
+  </si>
+  <si>
+    <t>College Biology</t>
+  </si>
+  <si>
+    <t>College Medicine</t>
+  </si>
+  <si>
+    <t>MedQA</t>
+  </si>
+  <si>
+    <t>MedQA 5 opts</t>
+  </si>
+  <si>
+    <t>PubMedQA</t>
+  </si>
+  <si>
+    <t>MedMCQA</t>
+  </si>
+  <si>
+    <t>Avg.</t>
+  </si>
+  <si>
+    <t>BioMistral 7B</t>
+  </si>
+  <si>
+    <t>Mistral 7B Instruct</t>
+  </si>
+  <si>
+    <t>BioMistral 7B Ensemble</t>
+  </si>
+  <si>
+    <t>BioMistral 7B DARE</t>
+  </si>
+  <si>
+    <t>BioMistral 7B TIES</t>
+  </si>
+  <si>
+    <t>BioMistral 7B SLERP</t>
+  </si>
+  <si>
+    <t>MedAlpaca 7B</t>
+  </si>
+  <si>
+    <t>PMC-LLaMA 7B</t>
+  </si>
+  <si>
+    <r>
+      <t>GPT-3.5 Turbo 1106</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Huggin Face</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/medalpaca/medalpaca-7b</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>https://github.com/kbressem/medAlpaca</t>
+  </si>
+  <si>
+    <t>https://github.com/taokz/BiomedGPT</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/PharMolix/BioMedGPT-LM-7B</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>OpenBioMed</t>
+  </si>
+  <si>
+    <t>https://github.com/PharMolix/OpenBioMed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +317,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,10 +363,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -515,14 +672,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182845A1-BEDA-4541-BDC6-A1EFB887114D}">
-  <dimension ref="B3:L13"/>
+  <dimension ref="B3:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -761,11 +919,629 @@
         <v>42</v>
       </c>
     </row>
+    <row r="18" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B18:D18"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K11" r:id="rId1" xr:uid="{66BBD36C-DE30-4153-A4B2-9BD05A106108}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967F52EC-8C23-43FF-91B4-740796B2A0AB}">
+  <dimension ref="B4:N33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="5">
+        <v>24.5</v>
+      </c>
+      <c r="E20" s="6">
+        <v>27.7</v>
+      </c>
+      <c r="F20" s="6">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="G20" s="6">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H20" s="6">
+        <v>30.3</v>
+      </c>
+      <c r="I20" s="6">
+        <v>23.3</v>
+      </c>
+      <c r="J20" s="6">
+        <v>25.5</v>
+      </c>
+      <c r="K20" s="6">
+        <v>20.2</v>
+      </c>
+      <c r="L20" s="6">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="M20" s="6">
+        <v>26.6</v>
+      </c>
+      <c r="N20" s="6">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="5">
+        <v>41.6</v>
+      </c>
+      <c r="E21" s="6">
+        <v>50.3</v>
+      </c>
+      <c r="F21" s="6">
+        <v>46.4</v>
+      </c>
+      <c r="G21" s="6">
+        <v>27.9</v>
+      </c>
+      <c r="H21" s="6">
+        <v>44.4</v>
+      </c>
+      <c r="I21" s="6">
+        <v>30.8</v>
+      </c>
+      <c r="J21" s="6">
+        <v>41.6</v>
+      </c>
+      <c r="K21" s="6">
+        <v>28.1</v>
+      </c>
+      <c r="L21" s="6">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="M21" s="6">
+        <v>41.3</v>
+      </c>
+      <c r="N21" s="6">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="5">
+        <v>51.4</v>
+      </c>
+      <c r="E22" s="6">
+        <v>52</v>
+      </c>
+      <c r="F22" s="6">
+        <v>49.4</v>
+      </c>
+      <c r="G22" s="6">
+        <v>53.3</v>
+      </c>
+      <c r="H22" s="6">
+        <v>50.7</v>
+      </c>
+      <c r="I22" s="6">
+        <v>49.1</v>
+      </c>
+      <c r="J22" s="6">
+        <v>42.5</v>
+      </c>
+      <c r="K22" s="6">
+        <v>33.9</v>
+      </c>
+      <c r="L22" s="6">
+        <v>76.8</v>
+      </c>
+      <c r="M22" s="6">
+        <v>37.6</v>
+      </c>
+      <c r="N22" s="6">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="5">
+        <v>53.1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>58</v>
+      </c>
+      <c r="F23" s="6">
+        <v>54.1</v>
+      </c>
+      <c r="G23" s="6">
+        <v>58.8</v>
+      </c>
+      <c r="H23" s="6">
+        <v>58.1</v>
+      </c>
+      <c r="I23" s="6">
+        <v>48.6</v>
+      </c>
+      <c r="J23" s="6">
+        <v>40.1</v>
+      </c>
+      <c r="K23" s="6">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="L23" s="6">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="M23" s="6">
+        <v>37</v>
+      </c>
+      <c r="N23" s="6">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="4">
+        <v>62.9</v>
+      </c>
+      <c r="E24" s="6">
+        <v>57</v>
+      </c>
+      <c r="F24" s="6">
+        <v>55.6</v>
+      </c>
+      <c r="G24" s="6">
+        <v>59.4</v>
+      </c>
+      <c r="H24" s="6">
+        <v>62.5</v>
+      </c>
+      <c r="I24" s="8">
+        <v>57.2</v>
+      </c>
+      <c r="J24" s="6">
+        <v>42</v>
+      </c>
+      <c r="K24" s="6">
+        <v>40.9</v>
+      </c>
+      <c r="L24" s="6">
+        <v>75.7</v>
+      </c>
+      <c r="M24" s="6">
+        <v>46.1</v>
+      </c>
+      <c r="N24" s="6">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="5">
+        <v>59.9</v>
+      </c>
+      <c r="E25" s="6">
+        <v>64</v>
+      </c>
+      <c r="F25" s="6">
+        <v>56.5</v>
+      </c>
+      <c r="G25" s="6">
+        <v>60.4</v>
+      </c>
+      <c r="H25" s="6">
+        <v>59</v>
+      </c>
+      <c r="I25" s="6">
+        <v>54.7</v>
+      </c>
+      <c r="J25" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="K25" s="6">
+        <v>42.8</v>
+      </c>
+      <c r="L25" s="6">
+        <v>77.5</v>
+      </c>
+      <c r="M25" s="6">
+        <v>48.1</v>
+      </c>
+      <c r="N25" s="6">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="5">
+        <v>60.1</v>
+      </c>
+      <c r="E26" s="8">
+        <v>65</v>
+      </c>
+      <c r="F26" s="7">
+        <v>58.5</v>
+      </c>
+      <c r="G26" s="6">
+        <v>60.5</v>
+      </c>
+      <c r="H26" s="6">
+        <v>60.4</v>
+      </c>
+      <c r="I26" s="6">
+        <v>56.5</v>
+      </c>
+      <c r="J26" s="6">
+        <v>49.5</v>
+      </c>
+      <c r="K26" s="6">
+        <v>43.2</v>
+      </c>
+      <c r="L26" s="6">
+        <v>77.5</v>
+      </c>
+      <c r="M26" s="6">
+        <v>48.1</v>
+      </c>
+      <c r="N26" s="6">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="9">
+        <v>62.8</v>
+      </c>
+      <c r="E27" s="6">
+        <v>62.7</v>
+      </c>
+      <c r="F27" s="8">
+        <v>57.5</v>
+      </c>
+      <c r="G27" s="7">
+        <v>63.5</v>
+      </c>
+      <c r="H27" s="6">
+        <v>64.3</v>
+      </c>
+      <c r="I27" s="6">
+        <v>55.7</v>
+      </c>
+      <c r="J27" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="K27" s="6">
+        <v>43.6</v>
+      </c>
+      <c r="L27" s="6">
+        <v>77.5</v>
+      </c>
+      <c r="M27" s="7">
+        <v>48.8</v>
+      </c>
+      <c r="N27" s="6">
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="E28" s="6">
+        <v>64.7</v>
+      </c>
+      <c r="F28" s="6">
+        <v>55.8</v>
+      </c>
+      <c r="G28" s="8">
+        <v>62.7</v>
+      </c>
+      <c r="H28" s="8">
+        <v>64.8</v>
+      </c>
+      <c r="I28" s="6">
+        <v>56.3</v>
+      </c>
+      <c r="J28" s="8">
+        <v>50.8</v>
+      </c>
+      <c r="K28" s="8">
+        <v>44.3</v>
+      </c>
+      <c r="L28" s="7">
+        <v>77.8</v>
+      </c>
+      <c r="M28" s="6">
+        <v>48.6</v>
+      </c>
+      <c r="N28" s="8">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="5">
+        <v>62.3</v>
+      </c>
+      <c r="E29" s="7">
+        <v>67</v>
+      </c>
+      <c r="F29" s="6">
+        <v>55.8</v>
+      </c>
+      <c r="G29" s="6">
+        <v>61.4</v>
+      </c>
+      <c r="H29" s="7">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="I29" s="7">
+        <v>58</v>
+      </c>
+      <c r="J29" s="7">
+        <v>51.1</v>
+      </c>
+      <c r="K29" s="7">
+        <v>45.2</v>
+      </c>
+      <c r="L29" s="8">
+        <v>77.7</v>
+      </c>
+      <c r="M29" s="8">
+        <v>48.7</v>
+      </c>
+      <c r="N29" s="7">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="5">
+        <v>74.709999999999994</v>
+      </c>
+      <c r="E30" s="6">
+        <v>74</v>
+      </c>
+      <c r="F30" s="6">
+        <v>65.92</v>
+      </c>
+      <c r="G30" s="6">
+        <v>72.790000000000006</v>
+      </c>
+      <c r="H30" s="6">
+        <v>72.91</v>
+      </c>
+      <c r="I30" s="6">
+        <v>64.73</v>
+      </c>
+      <c r="J30" s="6">
+        <v>57.71</v>
+      </c>
+      <c r="K30" s="6">
+        <v>50.82</v>
+      </c>
+      <c r="L30" s="6">
+        <v>72.66</v>
+      </c>
+      <c r="M30" s="6">
+        <v>53.79</v>
+      </c>
+      <c r="N30" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C31" s="6"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C32" s="6"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C33" s="6"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C20:N33">
+    <sortCondition ref="N20:N33"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documentation/biomedical_llm_state_of_art.xlsx
+++ b/documentation/biomedical_llm_state_of_art.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RESEARCH\Hackaton_NLP_2024\SOURCE\SpanishMedicaLLM\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D936E4A-BCE1-4F4A-93D3-8FBAF8A451D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C56FB1-0DD6-459E-BA94-BEAE9A1A47C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,9 +367,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -390,6 +387,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -920,11 +920,11 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
@@ -950,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967F52EC-8C23-43FF-91B4-740796B2A0AB}">
   <dimension ref="B4:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1043,500 +1043,500 @@
       </c>
     </row>
     <row r="19" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>24.5</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>27.7</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>35.299999999999997</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>17.399999999999999</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>30.3</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>23.3</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>25.5</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>20.2</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <v>72.900000000000006</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
         <v>26.6</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="5">
         <v>30.4</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>41.6</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>50.3</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>46.4</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>27.9</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>44.4</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <v>30.8</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>41.6</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>28.1</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
         <v>74.900000000000006</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="5">
         <v>41.3</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="5">
         <v>42.7</v>
       </c>
     </row>
     <row r="22" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>51.4</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>52</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>49.4</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>53.3</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>50.7</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>49.1</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>42.5</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>33.9</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <v>76.8</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="5">
         <v>37.6</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="5">
         <v>49.7</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>53.1</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>58</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>54.1</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>58.8</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>58.1</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>48.6</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>40.1</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>33.700000000000003</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
         <v>73.599999999999994</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="5">
         <v>37</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="5">
         <v>51.5</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>62.9</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>57</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>55.6</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>59.4</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>62.5</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="7">
         <v>57.2</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <v>42</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>40.9</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <v>75.7</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="5">
         <v>46.1</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="5">
         <v>55.9</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>59.9</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>64</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>56.5</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>60.4</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>59</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>54.7</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <v>50.6</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>42.8</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <v>77.5</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="5">
         <v>48.1</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="5">
         <v>57.3</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>60.1</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>65</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>58.5</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>60.5</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <v>60.4</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <v>56.5</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <v>49.5</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>43.2</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
         <v>77.5</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="5">
         <v>48.1</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="5">
         <v>57.9</v>
       </c>
     </row>
     <row r="27" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>62.8</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>62.7</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <v>57.5</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>63.5</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <v>64.3</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="5">
         <v>55.7</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>50.6</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <v>43.6</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="5">
         <v>77.5</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="6">
         <v>48.8</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="5">
         <v>58.7</v>
       </c>
     </row>
     <row r="28" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>62.5</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>64.7</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>55.8</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <v>62.7</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="7">
         <v>64.8</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <v>56.3</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="7">
         <v>50.8</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="7">
         <v>44.3</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="6">
         <v>77.8</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="5">
         <v>48.6</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="7">
         <v>58.8</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>62.3</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>67</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>55.8</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>61.4</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <v>66.900000000000006</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>58</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <v>51.1</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="6">
         <v>45.2</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="7">
         <v>77.7</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="7">
         <v>48.7</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="6">
         <v>59.4</v>
       </c>
     </row>
     <row r="30" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>74.709999999999994</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>74</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>65.92</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>72.790000000000006</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <v>72.91</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <v>64.73</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <v>57.71</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <v>50.82</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="5">
         <v>72.66</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="5">
         <v>53.79</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="5">
         <v>66</v>
       </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C31" s="6"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C32" s="6"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C33" s="6"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C20:N33">
